--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T20:35:05-04:00</t>
+    <t>2025-07-08T20:54:38-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T20:54:38-04:00</t>
+    <t>2025-07-08T21:00:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T21:00:57-04:00</t>
+    <t>2025-07-08T21:05:27-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T21:05:27-04:00</t>
+    <t>2025-07-08T21:14:34-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T21:14:34-04:00</t>
+    <t>2025-07-08T21:22:48-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T21:22:48-04:00</t>
+    <t>2025-07-09T06:15:13-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T06:15:13-04:00</t>
+    <t>2025-07-09T06:51:00-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T06:51:00-04:00</t>
+    <t>2025-07-09T07:07:13-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T07:07:13-04:00</t>
+    <t>2025-07-09T07:31:42-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T07:31:42-04:00</t>
+    <t>2025-07-09T08:42:39-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T09:19:55-04:00</t>
+    <t>2025-07-09T09:25:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T09:25:32-04:00</t>
+    <t>2025-07-09T09:31:51-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -633,7 +633,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
-    <t>22990393</t>
+    <t>12345</t>
   </si>
   <si>
     <t>123456</t>
@@ -2403,7 +2403,7 @@
     <t>authorString</t>
   </si>
   <si>
-    <t>Kristina Gary</t>
+    <t>Kristina Test</t>
   </si>
   <si>
     <t>ServiceRequest.note.time</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T09:31:51-04:00</t>
+    <t>2025-07-09T09:41:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T09:41:59-04:00</t>
+    <t>2025-07-09T09:44:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T09:44:59-04:00</t>
+    <t>2025-07-09T11:35:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T11:35:17-04:00</t>
+    <t>2025-07-09T11:57:14-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T11:57:14-04:00</t>
+    <t>2025-07-09T14:27:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T14:27:49-04:00</t>
+    <t>2025-07-09T20:17:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T20:17:03-04:00</t>
+    <t>2025-07-09T20:24:01-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T20:24:01-04:00</t>
+    <t>2025-07-09T20:35:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T20:35:37-04:00</t>
+    <t>2025-07-09T20:59:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
